--- a/kurstag-05/Erweiterte_Messungen.xlsx
+++ b/kurstag-05/Erweiterte_Messungen.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Substanz</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Temperatur (°C)</t>
-  </si>
-  <si>
-    <t>Temperatur (°F)</t>
   </si>
   <si>
     <t>Temperaturatur (°F)</t>
@@ -403,13 +400,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,13 +422,10 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -445,13 +439,10 @@
       <c r="E2">
         <v>77.0</v>
       </c>
-      <c r="F2">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2.040816326530612</v>
@@ -465,13 +456,10 @@
       <c r="E3">
         <v>77.0</v>
       </c>
-      <c r="F3">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>4.081632653061225</v>
@@ -485,13 +473,10 @@
       <c r="E4">
         <v>77.0</v>
       </c>
-      <c r="F4">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>6.122448979591837</v>
@@ -505,13 +490,10 @@
       <c r="E5">
         <v>77.0</v>
       </c>
-      <c r="F5">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>8.16326530612245</v>
@@ -525,13 +507,10 @@
       <c r="E6">
         <v>77.0</v>
       </c>
-      <c r="F6">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>10.20408163265306</v>
@@ -545,13 +524,10 @@
       <c r="E7">
         <v>77.0</v>
       </c>
-      <c r="F7">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>12.24489795918367</v>
@@ -565,13 +541,10 @@
       <c r="E8">
         <v>77.0</v>
       </c>
-      <c r="F8">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>14.28571428571429</v>
@@ -585,13 +558,10 @@
       <c r="E9">
         <v>77.0</v>
       </c>
-      <c r="F9">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>16.3265306122449</v>
@@ -605,13 +575,10 @@
       <c r="E10">
         <v>77.0</v>
       </c>
-      <c r="F10">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>18.36734693877551</v>
@@ -625,13 +592,10 @@
       <c r="E11">
         <v>77.0</v>
       </c>
-      <c r="F11">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>20.40816326530612</v>
@@ -645,13 +609,10 @@
       <c r="E12">
         <v>77.0</v>
       </c>
-      <c r="F12">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>22.44897959183674</v>
@@ -665,13 +626,10 @@
       <c r="E13">
         <v>77.0</v>
       </c>
-      <c r="F13">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>24.48979591836735</v>
@@ -685,13 +643,10 @@
       <c r="E14">
         <v>77.0</v>
       </c>
-      <c r="F14">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>26.53061224489796</v>
@@ -705,13 +660,10 @@
       <c r="E15">
         <v>77.0</v>
       </c>
-      <c r="F15">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>28.57142857142857</v>
@@ -725,13 +677,10 @@
       <c r="E16">
         <v>77.0</v>
       </c>
-      <c r="F16">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>30.61224489795918</v>
@@ -745,13 +694,10 @@
       <c r="E17">
         <v>77.0</v>
       </c>
-      <c r="F17">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>32.6530612244898</v>
@@ -765,13 +711,10 @@
       <c r="E18">
         <v>77.0</v>
       </c>
-      <c r="F18">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>34.69387755102041</v>
@@ -785,13 +728,10 @@
       <c r="E19">
         <v>77.0</v>
       </c>
-      <c r="F19">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>36.73469387755102</v>
@@ -805,13 +745,10 @@
       <c r="E20">
         <v>77.0</v>
       </c>
-      <c r="F20">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>38.77551020408163</v>
@@ -825,13 +762,10 @@
       <c r="E21">
         <v>77.0</v>
       </c>
-      <c r="F21">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>40.81632653061224</v>
@@ -845,13 +779,10 @@
       <c r="E22">
         <v>77.0</v>
       </c>
-      <c r="F22">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>42.85714285714286</v>
@@ -865,13 +796,10 @@
       <c r="E23">
         <v>77.0</v>
       </c>
-      <c r="F23">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>44.89795918367347</v>
@@ -885,13 +813,10 @@
       <c r="E24">
         <v>77.0</v>
       </c>
-      <c r="F24">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>46.93877551020408</v>
@@ -905,13 +830,10 @@
       <c r="E25">
         <v>77.0</v>
       </c>
-      <c r="F25">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>48.9795918367347</v>
@@ -925,13 +847,10 @@
       <c r="E26">
         <v>77.0</v>
       </c>
-      <c r="F26">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>51.02040816326531</v>
@@ -945,13 +864,10 @@
       <c r="E27">
         <v>77.0</v>
       </c>
-      <c r="F27">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28">
         <v>53.06122448979592</v>
@@ -965,13 +881,10 @@
       <c r="E28">
         <v>77.0</v>
       </c>
-      <c r="F28">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>55.10204081632653</v>
@@ -985,13 +898,10 @@
       <c r="E29">
         <v>77.0</v>
       </c>
-      <c r="F29">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <v>57.14285714285715</v>
@@ -1005,13 +915,10 @@
       <c r="E30">
         <v>77.0</v>
       </c>
-      <c r="F30">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <v>59.18367346938776</v>
@@ -1025,13 +932,10 @@
       <c r="E31">
         <v>77.0</v>
       </c>
-      <c r="F31">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>61.22448979591837</v>
@@ -1045,13 +949,10 @@
       <c r="E32">
         <v>77.0</v>
       </c>
-      <c r="F32">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>63.26530612244898</v>
@@ -1065,13 +966,10 @@
       <c r="E33">
         <v>77.0</v>
       </c>
-      <c r="F33">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>65.3061224489796</v>
@@ -1085,13 +983,10 @@
       <c r="E34">
         <v>77.0</v>
       </c>
-      <c r="F34">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>67.34693877551021</v>
@@ -1105,13 +1000,10 @@
       <c r="E35">
         <v>77.0</v>
       </c>
-      <c r="F35">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>69.38775510204081</v>
@@ -1125,13 +1017,10 @@
       <c r="E36">
         <v>77.0</v>
       </c>
-      <c r="F36">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
         <v>71.42857142857143</v>
@@ -1145,13 +1034,10 @@
       <c r="E37">
         <v>77.0</v>
       </c>
-      <c r="F37">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38">
         <v>73.46938775510205</v>
@@ -1165,13 +1051,10 @@
       <c r="E38">
         <v>77.0</v>
       </c>
-      <c r="F38">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39">
         <v>75.51020408163265</v>
@@ -1185,13 +1068,10 @@
       <c r="E39">
         <v>77.0</v>
       </c>
-      <c r="F39">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40">
         <v>77.55102040816327</v>
@@ -1205,13 +1085,10 @@
       <c r="E40">
         <v>77.0</v>
       </c>
-      <c r="F40">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41">
         <v>79.59183673469389</v>
@@ -1225,13 +1102,10 @@
       <c r="E41">
         <v>77.0</v>
       </c>
-      <c r="F41">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42">
         <v>81.63265306122449</v>
@@ -1245,13 +1119,10 @@
       <c r="E42">
         <v>77.0</v>
       </c>
-      <c r="F42">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>83.6734693877551</v>
@@ -1265,13 +1136,10 @@
       <c r="E43">
         <v>77.0</v>
       </c>
-      <c r="F43">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <v>85.71428571428572</v>
@@ -1285,13 +1153,10 @@
       <c r="E44">
         <v>77.0</v>
       </c>
-      <c r="F44">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <v>87.75510204081633</v>
@@ -1305,13 +1170,10 @@
       <c r="E45">
         <v>77.0</v>
       </c>
-      <c r="F45">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46">
         <v>89.79591836734694</v>
@@ -1325,13 +1187,10 @@
       <c r="E46">
         <v>77.0</v>
       </c>
-      <c r="F46">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47">
         <v>91.83673469387756</v>
@@ -1345,13 +1204,10 @@
       <c r="E47">
         <v>77.0</v>
       </c>
-      <c r="F47">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48">
         <v>93.87755102040816</v>
@@ -1365,13 +1221,10 @@
       <c r="E48">
         <v>77.0</v>
       </c>
-      <c r="F48">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49">
         <v>95.91836734693878</v>
@@ -1385,13 +1238,10 @@
       <c r="E49">
         <v>77.0</v>
       </c>
-      <c r="F49">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50">
         <v>97.9591836734694</v>
@@ -1405,13 +1255,10 @@
       <c r="E50">
         <v>77.0</v>
       </c>
-      <c r="F50">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51">
         <v>100</v>
@@ -1425,13 +1272,10 @@
       <c r="E51">
         <v>77.0</v>
       </c>
-      <c r="F51">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1445,13 +1289,10 @@
       <c r="E52">
         <v>86.0</v>
       </c>
-      <c r="F52">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>2.040816326530612</v>
@@ -1465,13 +1306,10 @@
       <c r="E53">
         <v>86.0</v>
       </c>
-      <c r="F53">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>4.081632653061225</v>
@@ -1485,13 +1323,10 @@
       <c r="E54">
         <v>86.0</v>
       </c>
-      <c r="F54">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55">
         <v>6.122448979591837</v>
@@ -1505,13 +1340,10 @@
       <c r="E55">
         <v>86.0</v>
       </c>
-      <c r="F55">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56">
         <v>8.16326530612245</v>
@@ -1525,13 +1357,10 @@
       <c r="E56">
         <v>86.0</v>
       </c>
-      <c r="F56">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57">
         <v>10.20408163265306</v>
@@ -1545,13 +1374,10 @@
       <c r="E57">
         <v>86.0</v>
       </c>
-      <c r="F57">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58">
         <v>12.24489795918367</v>
@@ -1565,13 +1391,10 @@
       <c r="E58">
         <v>86.0</v>
       </c>
-      <c r="F58">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59">
         <v>14.28571428571429</v>
@@ -1585,13 +1408,10 @@
       <c r="E59">
         <v>86.0</v>
       </c>
-      <c r="F59">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60">
         <v>16.3265306122449</v>
@@ -1605,13 +1425,10 @@
       <c r="E60">
         <v>86.0</v>
       </c>
-      <c r="F60">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61">
         <v>18.36734693877551</v>
@@ -1625,13 +1442,10 @@
       <c r="E61">
         <v>86.0</v>
       </c>
-      <c r="F61">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>20.40816326530612</v>
@@ -1645,13 +1459,10 @@
       <c r="E62">
         <v>86.0</v>
       </c>
-      <c r="F62">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63">
         <v>22.44897959183674</v>
@@ -1665,13 +1476,10 @@
       <c r="E63">
         <v>86.0</v>
       </c>
-      <c r="F63">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64">
         <v>24.48979591836735</v>
@@ -1685,13 +1493,10 @@
       <c r="E64">
         <v>86.0</v>
       </c>
-      <c r="F64">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65">
         <v>26.53061224489796</v>
@@ -1705,13 +1510,10 @@
       <c r="E65">
         <v>86.0</v>
       </c>
-      <c r="F65">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66">
         <v>28.57142857142857</v>
@@ -1725,13 +1527,10 @@
       <c r="E66">
         <v>86.0</v>
       </c>
-      <c r="F66">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67">
         <v>30.61224489795918</v>
@@ -1745,13 +1544,10 @@
       <c r="E67">
         <v>86.0</v>
       </c>
-      <c r="F67">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68">
         <v>32.6530612244898</v>
@@ -1765,13 +1561,10 @@
       <c r="E68">
         <v>86.0</v>
       </c>
-      <c r="F68">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B69">
         <v>34.69387755102041</v>
@@ -1785,13 +1578,10 @@
       <c r="E69">
         <v>86.0</v>
       </c>
-      <c r="F69">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70">
         <v>36.73469387755102</v>
@@ -1805,13 +1595,10 @@
       <c r="E70">
         <v>86.0</v>
       </c>
-      <c r="F70">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B71">
         <v>38.77551020408163</v>
@@ -1825,13 +1612,10 @@
       <c r="E71">
         <v>86.0</v>
       </c>
-      <c r="F71">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B72">
         <v>40.81632653061224</v>
@@ -1845,13 +1629,10 @@
       <c r="E72">
         <v>86.0</v>
       </c>
-      <c r="F72">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B73">
         <v>42.85714285714286</v>
@@ -1865,13 +1646,10 @@
       <c r="E73">
         <v>86.0</v>
       </c>
-      <c r="F73">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74">
         <v>44.89795918367347</v>
@@ -1885,13 +1663,10 @@
       <c r="E74">
         <v>86.0</v>
       </c>
-      <c r="F74">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75">
         <v>46.93877551020408</v>
@@ -1905,13 +1680,10 @@
       <c r="E75">
         <v>86.0</v>
       </c>
-      <c r="F75">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76">
         <v>48.9795918367347</v>
@@ -1925,13 +1697,10 @@
       <c r="E76">
         <v>86.0</v>
       </c>
-      <c r="F76">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77">
         <v>51.02040816326531</v>
@@ -1945,13 +1714,10 @@
       <c r="E77">
         <v>86.0</v>
       </c>
-      <c r="F77">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78">
         <v>53.06122448979592</v>
@@ -1965,13 +1731,10 @@
       <c r="E78">
         <v>86.0</v>
       </c>
-      <c r="F78">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79">
         <v>55.10204081632653</v>
@@ -1985,13 +1748,10 @@
       <c r="E79">
         <v>86.0</v>
       </c>
-      <c r="F79">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B80">
         <v>57.14285714285715</v>
@@ -2005,13 +1765,10 @@
       <c r="E80">
         <v>86.0</v>
       </c>
-      <c r="F80">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81">
         <v>59.18367346938776</v>
@@ -2025,13 +1782,10 @@
       <c r="E81">
         <v>86.0</v>
       </c>
-      <c r="F81">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B82">
         <v>61.22448979591837</v>
@@ -2045,13 +1799,10 @@
       <c r="E82">
         <v>86.0</v>
       </c>
-      <c r="F82">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B83">
         <v>63.26530612244898</v>
@@ -2065,13 +1816,10 @@
       <c r="E83">
         <v>86.0</v>
       </c>
-      <c r="F83">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B84">
         <v>65.3061224489796</v>
@@ -2085,13 +1833,10 @@
       <c r="E84">
         <v>86.0</v>
       </c>
-      <c r="F84">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B85">
         <v>67.34693877551021</v>
@@ -2105,13 +1850,10 @@
       <c r="E85">
         <v>86.0</v>
       </c>
-      <c r="F85">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B86">
         <v>69.38775510204081</v>
@@ -2125,13 +1867,10 @@
       <c r="E86">
         <v>86.0</v>
       </c>
-      <c r="F86">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87">
         <v>71.42857142857143</v>
@@ -2145,13 +1884,10 @@
       <c r="E87">
         <v>86.0</v>
       </c>
-      <c r="F87">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B88">
         <v>73.46938775510205</v>
@@ -2165,13 +1901,10 @@
       <c r="E88">
         <v>86.0</v>
       </c>
-      <c r="F88">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89">
         <v>75.51020408163265</v>
@@ -2185,13 +1918,10 @@
       <c r="E89">
         <v>86.0</v>
       </c>
-      <c r="F89">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B90">
         <v>77.55102040816327</v>
@@ -2205,13 +1935,10 @@
       <c r="E90">
         <v>86.0</v>
       </c>
-      <c r="F90">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B91">
         <v>79.59183673469389</v>
@@ -2225,13 +1952,10 @@
       <c r="E91">
         <v>86.0</v>
       </c>
-      <c r="F91">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B92">
         <v>81.63265306122449</v>
@@ -2245,13 +1969,10 @@
       <c r="E92">
         <v>86.0</v>
       </c>
-      <c r="F92">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B93">
         <v>83.6734693877551</v>
@@ -2265,13 +1986,10 @@
       <c r="E93">
         <v>86.0</v>
       </c>
-      <c r="F93">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94">
         <v>85.71428571428572</v>
@@ -2285,13 +2003,10 @@
       <c r="E94">
         <v>86.0</v>
       </c>
-      <c r="F94">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B95">
         <v>87.75510204081633</v>
@@ -2305,13 +2020,10 @@
       <c r="E95">
         <v>86.0</v>
       </c>
-      <c r="F95">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96">
         <v>89.79591836734694</v>
@@ -2325,13 +2037,10 @@
       <c r="E96">
         <v>86.0</v>
       </c>
-      <c r="F96">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97">
         <v>91.83673469387756</v>
@@ -2345,13 +2054,10 @@
       <c r="E97">
         <v>86.0</v>
       </c>
-      <c r="F97">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B98">
         <v>93.87755102040816</v>
@@ -2365,13 +2071,10 @@
       <c r="E98">
         <v>86.0</v>
       </c>
-      <c r="F98">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B99">
         <v>95.91836734693878</v>
@@ -2385,13 +2088,10 @@
       <c r="E99">
         <v>86.0</v>
       </c>
-      <c r="F99">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B100">
         <v>97.9591836734694</v>
@@ -2405,13 +2105,10 @@
       <c r="E100">
         <v>86.0</v>
       </c>
-      <c r="F100">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -2425,13 +2122,10 @@
       <c r="E101">
         <v>86.0</v>
       </c>
-      <c r="F101">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2445,13 +2139,10 @@
       <c r="E102">
         <v>82.4</v>
       </c>
-      <c r="F102">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103">
         <v>2.040816326530612</v>
@@ -2465,13 +2156,10 @@
       <c r="E103">
         <v>82.4</v>
       </c>
-      <c r="F103">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104">
         <v>4.081632653061225</v>
@@ -2485,13 +2173,10 @@
       <c r="E104">
         <v>82.4</v>
       </c>
-      <c r="F104">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105">
         <v>6.122448979591837</v>
@@ -2505,13 +2190,10 @@
       <c r="E105">
         <v>82.4</v>
       </c>
-      <c r="F105">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B106">
         <v>8.16326530612245</v>
@@ -2525,13 +2207,10 @@
       <c r="E106">
         <v>82.4</v>
       </c>
-      <c r="F106">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B107">
         <v>10.20408163265306</v>
@@ -2545,13 +2224,10 @@
       <c r="E107">
         <v>82.4</v>
       </c>
-      <c r="F107">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B108">
         <v>12.24489795918367</v>
@@ -2565,13 +2241,10 @@
       <c r="E108">
         <v>82.4</v>
       </c>
-      <c r="F108">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109">
         <v>14.28571428571429</v>
@@ -2585,13 +2258,10 @@
       <c r="E109">
         <v>82.4</v>
       </c>
-      <c r="F109">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B110">
         <v>16.3265306122449</v>
@@ -2605,13 +2275,10 @@
       <c r="E110">
         <v>82.4</v>
       </c>
-      <c r="F110">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B111">
         <v>18.36734693877551</v>
@@ -2625,13 +2292,10 @@
       <c r="E111">
         <v>82.4</v>
       </c>
-      <c r="F111">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B112">
         <v>20.40816326530612</v>
@@ -2645,13 +2309,10 @@
       <c r="E112">
         <v>82.4</v>
       </c>
-      <c r="F112">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B113">
         <v>22.44897959183674</v>
@@ -2665,13 +2326,10 @@
       <c r="E113">
         <v>82.4</v>
       </c>
-      <c r="F113">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B114">
         <v>24.48979591836735</v>
@@ -2685,13 +2343,10 @@
       <c r="E114">
         <v>82.4</v>
       </c>
-      <c r="F114">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B115">
         <v>26.53061224489796</v>
@@ -2705,13 +2360,10 @@
       <c r="E115">
         <v>82.4</v>
       </c>
-      <c r="F115">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B116">
         <v>28.57142857142857</v>
@@ -2725,13 +2377,10 @@
       <c r="E116">
         <v>82.4</v>
       </c>
-      <c r="F116">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B117">
         <v>30.61224489795918</v>
@@ -2745,13 +2394,10 @@
       <c r="E117">
         <v>82.4</v>
       </c>
-      <c r="F117">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B118">
         <v>32.6530612244898</v>
@@ -2765,13 +2411,10 @@
       <c r="E118">
         <v>82.4</v>
       </c>
-      <c r="F118">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B119">
         <v>34.69387755102041</v>
@@ -2785,13 +2428,10 @@
       <c r="E119">
         <v>82.4</v>
       </c>
-      <c r="F119">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B120">
         <v>36.73469387755102</v>
@@ -2805,13 +2445,10 @@
       <c r="E120">
         <v>82.4</v>
       </c>
-      <c r="F120">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B121">
         <v>38.77551020408163</v>
@@ -2825,13 +2462,10 @@
       <c r="E121">
         <v>82.4</v>
       </c>
-      <c r="F121">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B122">
         <v>40.81632653061224</v>
@@ -2845,13 +2479,10 @@
       <c r="E122">
         <v>82.4</v>
       </c>
-      <c r="F122">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B123">
         <v>42.85714285714286</v>
@@ -2865,13 +2496,10 @@
       <c r="E123">
         <v>82.4</v>
       </c>
-      <c r="F123">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B124">
         <v>44.89795918367347</v>
@@ -2885,13 +2513,10 @@
       <c r="E124">
         <v>82.4</v>
       </c>
-      <c r="F124">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B125">
         <v>46.93877551020408</v>
@@ -2905,13 +2530,10 @@
       <c r="E125">
         <v>82.4</v>
       </c>
-      <c r="F125">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B126">
         <v>48.9795918367347</v>
@@ -2925,13 +2547,10 @@
       <c r="E126">
         <v>82.4</v>
       </c>
-      <c r="F126">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B127">
         <v>51.02040816326531</v>
@@ -2945,13 +2564,10 @@
       <c r="E127">
         <v>82.4</v>
       </c>
-      <c r="F127">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B128">
         <v>53.06122448979592</v>
@@ -2965,13 +2581,10 @@
       <c r="E128">
         <v>82.4</v>
       </c>
-      <c r="F128">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B129">
         <v>55.10204081632653</v>
@@ -2985,13 +2598,10 @@
       <c r="E129">
         <v>82.4</v>
       </c>
-      <c r="F129">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B130">
         <v>57.14285714285715</v>
@@ -3005,13 +2615,10 @@
       <c r="E130">
         <v>82.4</v>
       </c>
-      <c r="F130">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B131">
         <v>59.18367346938776</v>
@@ -3025,13 +2632,10 @@
       <c r="E131">
         <v>82.4</v>
       </c>
-      <c r="F131">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B132">
         <v>61.22448979591837</v>
@@ -3045,13 +2649,10 @@
       <c r="E132">
         <v>82.4</v>
       </c>
-      <c r="F132">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B133">
         <v>63.26530612244898</v>
@@ -3065,13 +2666,10 @@
       <c r="E133">
         <v>82.4</v>
       </c>
-      <c r="F133">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B134">
         <v>65.3061224489796</v>
@@ -3085,13 +2683,10 @@
       <c r="E134">
         <v>82.4</v>
       </c>
-      <c r="F134">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B135">
         <v>67.34693877551021</v>
@@ -3105,13 +2700,10 @@
       <c r="E135">
         <v>82.4</v>
       </c>
-      <c r="F135">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B136">
         <v>69.38775510204081</v>
@@ -3125,13 +2717,10 @@
       <c r="E136">
         <v>82.4</v>
       </c>
-      <c r="F136">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B137">
         <v>71.42857142857143</v>
@@ -3145,13 +2734,10 @@
       <c r="E137">
         <v>82.4</v>
       </c>
-      <c r="F137">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B138">
         <v>73.46938775510205</v>
@@ -3165,13 +2751,10 @@
       <c r="E138">
         <v>82.4</v>
       </c>
-      <c r="F138">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B139">
         <v>75.51020408163265</v>
@@ -3185,13 +2768,10 @@
       <c r="E139">
         <v>82.4</v>
       </c>
-      <c r="F139">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B140">
         <v>77.55102040816327</v>
@@ -3205,13 +2785,10 @@
       <c r="E140">
         <v>82.4</v>
       </c>
-      <c r="F140">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B141">
         <v>79.59183673469389</v>
@@ -3225,13 +2802,10 @@
       <c r="E141">
         <v>82.4</v>
       </c>
-      <c r="F141">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B142">
         <v>81.63265306122449</v>
@@ -3245,13 +2819,10 @@
       <c r="E142">
         <v>82.4</v>
       </c>
-      <c r="F142">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B143">
         <v>83.6734693877551</v>
@@ -3265,13 +2836,10 @@
       <c r="E143">
         <v>82.4</v>
       </c>
-      <c r="F143">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B144">
         <v>85.71428571428572</v>
@@ -3285,13 +2853,10 @@
       <c r="E144">
         <v>82.4</v>
       </c>
-      <c r="F144">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B145">
         <v>87.75510204081633</v>
@@ -3305,13 +2870,10 @@
       <c r="E145">
         <v>82.4</v>
       </c>
-      <c r="F145">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B146">
         <v>89.79591836734694</v>
@@ -3325,13 +2887,10 @@
       <c r="E146">
         <v>82.4</v>
       </c>
-      <c r="F146">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B147">
         <v>91.83673469387756</v>
@@ -3345,13 +2904,10 @@
       <c r="E147">
         <v>82.4</v>
       </c>
-      <c r="F147">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B148">
         <v>93.87755102040816</v>
@@ -3365,13 +2921,10 @@
       <c r="E148">
         <v>82.4</v>
       </c>
-      <c r="F148">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B149">
         <v>95.91836734693878</v>
@@ -3385,13 +2938,10 @@
       <c r="E149">
         <v>82.4</v>
       </c>
-      <c r="F149">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B150">
         <v>97.9591836734694</v>
@@ -3405,13 +2955,10 @@
       <c r="E150">
         <v>82.4</v>
       </c>
-      <c r="F150">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B151">
         <v>100</v>
@@ -3423,9 +2970,6 @@
         <v>28</v>
       </c>
       <c r="E151">
-        <v>82.4</v>
-      </c>
-      <c r="F151">
         <v>82.4</v>
       </c>
     </row>

--- a/kurstag-05/Erweiterte_Messungen.xlsx
+++ b/kurstag-05/Erweiterte_Messungen.xlsx
@@ -566,9 +566,7 @@
       <c r="B10">
         <v>16.3265306122449</v>
       </c>
-      <c r="C10">
-        <v>71.20328026360572</v>
-      </c>
+      <c r="C10"/>
       <c r="D10">
         <v>25</v>
       </c>
@@ -719,9 +717,7 @@
       <c r="B19">
         <v>34.69387755102041</v>
       </c>
-      <c r="C19">
-        <v>50.59198947494649</v>
-      </c>
+      <c r="C19"/>
       <c r="D19">
         <v>25</v>
       </c>
@@ -1059,9 +1055,7 @@
       <c r="B39">
         <v>75.51020408163265</v>
       </c>
-      <c r="C39">
-        <v>18.16714964128729</v>
-      </c>
+      <c r="C39"/>
       <c r="D39">
         <v>25</v>
       </c>
@@ -1284,10 +1278,10 @@
         <v>50.48612595409219</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E52">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1301,10 +1295,10 @@
         <v>47.91495483274981</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E53">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1318,10 +1312,10 @@
         <v>46.01521991273363</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E54">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1335,10 +1329,10 @@
         <v>46.53021827468856</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E55">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1352,10 +1346,10 @@
         <v>45.78405149131187</v>
       </c>
       <c r="D56">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E56">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1369,10 +1363,10 @@
         <v>44.30077942193867</v>
       </c>
       <c r="D57">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E57">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1386,10 +1380,10 @@
         <v>40.35154874968111</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E58">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1403,10 +1397,10 @@
         <v>39.89206878649264</v>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E59">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1420,10 +1414,10 @@
         <v>39.63611565345133</v>
       </c>
       <c r="D60">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E60">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1437,10 +1431,10 @@
         <v>39.42255195428462</v>
       </c>
       <c r="D61">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E61">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1454,10 +1448,10 @@
         <v>36.09606140254891</v>
       </c>
       <c r="D62">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E62">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1471,10 +1465,10 @@
         <v>35.4264250058098</v>
       </c>
       <c r="D63">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E63">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1488,10 +1482,10 @@
         <v>32.96896374925085</v>
       </c>
       <c r="D64">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E64">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1501,14 +1495,12 @@
       <c r="B65">
         <v>26.53061224489796</v>
       </c>
-      <c r="C65">
-        <v>31.79016221378609</v>
-      </c>
+      <c r="C65"/>
       <c r="D65">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E65">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1522,10 +1514,10 @@
         <v>33.79074161014407</v>
       </c>
       <c r="D66">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E66">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1539,10 +1531,10 @@
         <v>33.62431951748534</v>
       </c>
       <c r="D67">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E67">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1556,10 +1548,10 @@
         <v>30.52955645451698</v>
       </c>
       <c r="D68">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E68">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1573,10 +1565,10 @@
         <v>31.21919614874057</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E69">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1590,10 +1582,10 @@
         <v>29.36052335515038</v>
       </c>
       <c r="D70">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E70">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1607,10 +1599,10 @@
         <v>26.98156999796953</v>
       </c>
       <c r="D71">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E71">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1624,10 +1616,10 @@
         <v>27.64871690426088</v>
       </c>
       <c r="D72">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E72">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1641,10 +1633,10 @@
         <v>28.59645607098794</v>
       </c>
       <c r="D73">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E73">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1658,10 +1650,10 @@
         <v>25.44307786048927</v>
       </c>
       <c r="D74">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E74">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1675,10 +1667,10 @@
         <v>27.07509327700186</v>
       </c>
       <c r="D75">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E75">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1692,10 +1684,10 @@
         <v>20.0529957853676</v>
       </c>
       <c r="D76">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E76">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1709,10 +1701,10 @@
         <v>24.49242893721228</v>
       </c>
       <c r="D77">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E77">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1722,14 +1714,12 @@
       <c r="B78">
         <v>53.06122448979592</v>
       </c>
-      <c r="C78">
-        <v>22.68890599411496</v>
-      </c>
+      <c r="C78"/>
       <c r="D78">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E78">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1743,10 +1733,10 @@
         <v>21.42972585931467</v>
       </c>
       <c r="D79">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E79">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1760,10 +1750,10 @@
         <v>21.35628344865075</v>
       </c>
       <c r="D80">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E80">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1777,10 +1767,10 @@
         <v>17.59758005569529</v>
       </c>
       <c r="D81">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E81">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1794,10 +1784,10 @@
         <v>19.62900296041792</v>
       </c>
       <c r="D82">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E82">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1811,10 +1801,10 @@
         <v>19.89246178547405</v>
       </c>
       <c r="D83">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E83">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1828,10 +1818,10 @@
         <v>20.99005698322052</v>
       </c>
       <c r="D84">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E84">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1845,10 +1835,10 @@
         <v>17.42982751017695</v>
       </c>
       <c r="D85">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E85">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1862,10 +1852,10 @@
         <v>16.44557285874249</v>
       </c>
       <c r="D86">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E86">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1879,10 +1869,10 @@
         <v>16.37330718927547</v>
       </c>
       <c r="D87">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E87">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1896,10 +1886,10 @@
         <v>17.98272556040879</v>
       </c>
       <c r="D88">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E88">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1913,10 +1903,10 @@
         <v>16.6019949286519</v>
       </c>
       <c r="D89">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E89">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1930,10 +1920,10 @@
         <v>14.82857079181327</v>
       </c>
       <c r="D90">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E90">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1947,10 +1937,10 @@
         <v>15.92209688392504</v>
       </c>
       <c r="D91">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E91">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1964,10 +1954,10 @@
         <v>14.84099707109815</v>
       </c>
       <c r="D92">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E92">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1981,10 +1971,10 @@
         <v>15.70530550261368</v>
       </c>
       <c r="D93">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E93">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1998,10 +1988,10 @@
         <v>12.76957269066219</v>
       </c>
       <c r="D94">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E94">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2015,10 +2005,10 @@
         <v>12.91442777717123</v>
       </c>
       <c r="D95">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E95">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2032,10 +2022,10 @@
         <v>12.41359123047912</v>
       </c>
       <c r="D96">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E96">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2049,10 +2039,10 @@
         <v>10.41449851977642</v>
       </c>
       <c r="D97">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E97">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2066,10 +2056,10 @@
         <v>12.67378649881343</v>
       </c>
       <c r="D98">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E98">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2083,10 +2073,10 @@
         <v>12.25248550823627</v>
       </c>
       <c r="D99">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E99">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2100,10 +2090,10 @@
         <v>11.51098513465415</v>
       </c>
       <c r="D100">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E100">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2117,10 +2107,10 @@
         <v>10.80462730735877</v>
       </c>
       <c r="D101">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E101">
-        <v>86.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2134,10 +2124,10 @@
         <v>76.46157314487397</v>
       </c>
       <c r="D102">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E102">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2151,10 +2141,10 @@
         <v>77.33228060138296</v>
       </c>
       <c r="D103">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E103">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2168,10 +2158,10 @@
         <v>75.9436490115213</v>
       </c>
       <c r="D104">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E104">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2185,10 +2175,10 @@
         <v>73.24327148805406</v>
       </c>
       <c r="D105">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E105">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2202,10 +2192,10 @@
         <v>73.32562150465296</v>
       </c>
       <c r="D106">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E106">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2219,10 +2209,10 @@
         <v>73.24954266779875</v>
       </c>
       <c r="D107">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E107">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2232,14 +2222,12 @@
       <c r="B108">
         <v>12.24489795918367</v>
       </c>
-      <c r="C108">
-        <v>75.49554828513503</v>
-      </c>
+      <c r="C108"/>
       <c r="D108">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E108">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2253,10 +2241,10 @@
         <v>69.78667651209412</v>
       </c>
       <c r="D109">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E109">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2270,10 +2258,10 @@
         <v>68.5931413022719</v>
       </c>
       <c r="D110">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E110">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2287,10 +2275,10 @@
         <v>66.39048526580869</v>
       </c>
       <c r="D111">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E111">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2304,10 +2292,10 @@
         <v>60.43473640554943</v>
       </c>
       <c r="D112">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E112">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2321,10 +2309,10 @@
         <v>63.84761362667912</v>
       </c>
       <c r="D113">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E113">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2338,10 +2326,10 @@
         <v>62.77332833500613</v>
       </c>
       <c r="D114">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E114">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2355,10 +2343,10 @@
         <v>67.51579543767004</v>
       </c>
       <c r="D115">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E115">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2372,10 +2360,10 @@
         <v>59.63728103407008</v>
       </c>
       <c r="D116">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E116">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2389,10 +2377,10 @@
         <v>59.65758477074097</v>
       </c>
       <c r="D117">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E117">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2406,10 +2394,10 @@
         <v>57.62700380411739</v>
       </c>
       <c r="D118">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E118">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2423,10 +2411,10 @@
         <v>53.62619317619854</v>
       </c>
       <c r="D119">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E119">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2440,10 +2428,10 @@
         <v>58.26260297270336</v>
       </c>
       <c r="D120">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E120">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2457,10 +2445,10 @@
         <v>56.16611301435764</v>
       </c>
       <c r="D121">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E121">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2474,10 +2462,10 @@
         <v>55.16720544395929</v>
       </c>
       <c r="D122">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E122">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2491,10 +2479,10 @@
         <v>49.84165596549759</v>
       </c>
       <c r="D123">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E123">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2508,10 +2496,10 @@
         <v>54.56931575057506</v>
       </c>
       <c r="D124">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E124">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2525,10 +2513,10 @@
         <v>46.52617553467503</v>
       </c>
       <c r="D125">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E125">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2542,10 +2530,10 @@
         <v>50.48725735352064</v>
       </c>
       <c r="D126">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E126">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2559,10 +2547,10 @@
         <v>53.5059823603973</v>
       </c>
       <c r="D127">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E127">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2572,14 +2560,12 @@
       <c r="B128">
         <v>53.06122448979592</v>
       </c>
-      <c r="C128">
-        <v>44.58323595387024</v>
-      </c>
+      <c r="C128"/>
       <c r="D128">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E128">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2593,10 +2579,10 @@
         <v>44.69316658411935</v>
       </c>
       <c r="D129">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E129">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2610,10 +2596,10 @@
         <v>45.42657817333983</v>
       </c>
       <c r="D130">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E130">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2627,10 +2613,10 @@
         <v>43.00611622825806</v>
       </c>
       <c r="D131">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E131">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2644,10 +2630,10 @@
         <v>39.49393901593188</v>
       </c>
       <c r="D132">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E132">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2661,10 +2647,10 @@
         <v>42.66586144346427</v>
       </c>
       <c r="D133">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E133">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2678,10 +2664,10 @@
         <v>38.98025039734091</v>
       </c>
       <c r="D134">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E134">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2695,10 +2681,10 @@
         <v>41.97888814723466</v>
       </c>
       <c r="D135">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E135">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2712,10 +2698,10 @@
         <v>37.67223526222025</v>
       </c>
       <c r="D136">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E136">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2729,10 +2715,10 @@
         <v>43.0381687771001</v>
       </c>
       <c r="D137">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E137">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2746,10 +2732,10 @@
         <v>36.41404827556295</v>
       </c>
       <c r="D138">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E138">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2763,10 +2749,10 @@
         <v>36.79185876233364</v>
       </c>
       <c r="D139">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E139">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2780,10 +2766,10 @@
         <v>38.87129608356555</v>
       </c>
       <c r="D140">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E140">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2797,10 +2783,10 @@
         <v>33.01617583572744</v>
       </c>
       <c r="D141">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E141">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2810,14 +2796,12 @@
       <c r="B142">
         <v>81.63265306122449</v>
       </c>
-      <c r="C142">
-        <v>35.93285319841637</v>
-      </c>
+      <c r="C142"/>
       <c r="D142">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E142">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2831,10 +2815,10 @@
         <v>37.91765644159433</v>
       </c>
       <c r="D143">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E143">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2848,10 +2832,10 @@
         <v>29.93111956775292</v>
       </c>
       <c r="D144">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E144">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2865,10 +2849,10 @@
         <v>33.72558075943463</v>
       </c>
       <c r="D145">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E145">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2882,10 +2866,10 @@
         <v>33.241726264315</v>
       </c>
       <c r="D146">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E146">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2899,10 +2883,10 @@
         <v>33.88817444692196</v>
       </c>
       <c r="D147">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E147">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2916,10 +2900,10 @@
         <v>28.19613907283217</v>
       </c>
       <c r="D148">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E148">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2933,10 +2917,10 @@
         <v>27.35530480399674</v>
       </c>
       <c r="D149">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E149">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2950,10 +2934,10 @@
         <v>31.34199937981544</v>
       </c>
       <c r="D150">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E150">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2967,10 +2951,10 @@
         <v>30.17281697679836</v>
       </c>
       <c r="D151">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E151">
-        <v>82.4</v>
+        <v>77.0</v>
       </c>
     </row>
   </sheetData>

--- a/kurstag-05/Erweiterte_Messungen.xlsx
+++ b/kurstag-05/Erweiterte_Messungen.xlsx
@@ -39,7 +39,7 @@
     <t>Temperatur (°C)</t>
   </si>
   <si>
-    <t>Temperaturatur (°F)</t>
+    <t>Temperatur (°F)</t>
   </si>
   <si>
     <t>H2SO4</t>
